--- a/Docs/Bao cao lan 3,4/Car-Rental_Testcases_final.xlsx
+++ b/Docs/Bao cao lan 3,4/Car-Rental_Testcases_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ky12324\KTLTHĐT\car-rental\Docs\Bao cao lan 3,4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC34BFA1-CBDC-44ED-89D8-1E1AE1D05D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C748B9-2318-4093-9CEE-E8ABB6FC3B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="13096" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TestCase_WebAdmin" sheetId="1" r:id="rId1"/>
@@ -1485,10 +1485,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -2754,15 +2757,18 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:J49"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -3532,12 +3538,15 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="63" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -4647,15 +4656,18 @@
     <row r="1048576" ht="12.85" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="51" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D37" activeCellId="1" sqref="F29 D37"/>
     </sheetView>
   </sheetViews>
@@ -5396,12 +5408,15 @@
     <row r="1048576" ht="12.85" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B2:F30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
@@ -5872,6 +5887,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" scale="71" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>